--- a/powercup.xlsx
+++ b/powercup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\iv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136962EB-FDA6-40AC-AC2F-D5A50B24CAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC87BA60-2246-40DA-AF69-BBCCF7F6B151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="420" windowWidth="22956" windowHeight="11892" xr2:uid="{872D5EE9-3762-4425-92BE-822A3ECA4638}"/>
+    <workbookView xWindow="2304" yWindow="1440" windowWidth="20424" windowHeight="12240" xr2:uid="{872D5EE9-3762-4425-92BE-822A3ECA4638}"/>
   </bookViews>
   <sheets>
     <sheet name="powercup" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="356">
   <si>
     <t>sarja</t>
   </si>
@@ -225,9 +225,6 @@
   </si>
   <si>
     <t>25-21,12-25,11-15</t>
-  </si>
-  <si>
-    <t>5QUQXEG7</t>
   </si>
   <si>
     <t>Kiisto Salamat</t>
@@ -1124,7 +1121,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d&quot;.&quot;m&quot;.&quot;yyyy"/>
-    <numFmt numFmtId="166" formatCode="d\.m\.yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="d\.m\.yyyy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1193,7 +1190,7 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1514,7 +1511,7 @@
   <dimension ref="A1:P124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1529,36 +1526,34 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="J1" s="1"/>
-      <c r="K1" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="K1" s="2"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -1585,10 +1580,10 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" t="s">
         <v>276</v>
-      </c>
-      <c r="B3" t="s">
-        <v>277</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C9" si="0">SUM(D3:F3)</f>
@@ -1664,7 +1659,7 @@
         <v>39</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
@@ -1701,7 +1696,7 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -1727,16 +1722,16 @@
         <v>1379</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -1762,13 +1757,13 @@
         <v>1340</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B8" s="7">
         <v>2017.2025000000001</v>
@@ -1806,7 +1801,7 @@
         <v>52</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -1853,27 +1848,27 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
-        <f>SUM(C3:C10)</f>
+        <f t="shared" ref="C11:H11" si="1">SUM(C3:C10)</f>
         <v>162</v>
       </c>
       <c r="D11" s="1">
-        <f>SUM(D3:D10)</f>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="E11" s="1">
-        <f>SUM(E3:E10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <f>SUM(F3:F10)</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="G11" s="1">
-        <f>SUM(G3:G10)</f>
+        <f t="shared" si="1"/>
         <v>7997</v>
       </c>
       <c r="H11" s="1">
-        <f>SUM(H3:H10)</f>
+        <f t="shared" si="1"/>
         <v>7534</v>
       </c>
       <c r="K11" s="1"/>
@@ -2288,7 +2283,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B2" s="10">
         <v>42530</v>
@@ -2300,13 +2295,13 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -2318,7 +2313,7 @@
         <v>38</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O2">
         <f>SUM(H2:H10)*2</f>
@@ -2339,7 +2334,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B3" s="10">
         <v>42531</v>
@@ -2351,13 +2346,13 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -2371,7 +2366,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B4" s="10">
         <v>42531</v>
@@ -2383,13 +2378,13 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -2403,7 +2398,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B5" s="10">
         <v>42531</v>
@@ -2415,13 +2410,13 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K5">
         <v>31</v>
@@ -2432,7 +2427,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B6" s="10">
         <v>42532</v>
@@ -2444,13 +2439,13 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -2464,7 +2459,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B7" s="10">
         <v>42532</v>
@@ -2476,13 +2471,13 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -2496,7 +2491,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B8" s="10">
         <v>42532</v>
@@ -2508,13 +2503,13 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -2528,7 +2523,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B9" s="10">
         <v>42533</v>
@@ -2540,13 +2535,13 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -2560,7 +2555,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B10" s="10">
         <v>42533</v>
@@ -2578,7 +2573,7 @@
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -2598,7 +2593,7 @@
       <c r="B12" s="10"/>
       <c r="F12" s="5"/>
       <c r="M12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -2674,7 +2669,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B2" s="4">
         <v>45813</v>
@@ -2683,16 +2678,16 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -2704,7 +2699,7 @@
         <v>33</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O2">
         <f>SUM(H2:H13)*2</f>
@@ -2725,7 +2720,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B3" s="4">
         <v>45813</v>
@@ -2734,16 +2729,16 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -2755,7 +2750,7 @@
         <v>52</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O3">
         <f>SUM(H14:H25)*2</f>
@@ -2776,7 +2771,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B4" s="4">
         <v>45814</v>
@@ -2785,16 +2780,16 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" t="s">
         <v>81</v>
-      </c>
-      <c r="E4" t="s">
-        <v>82</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -2808,7 +2803,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B5" s="4">
         <v>45814</v>
@@ -2817,16 +2812,16 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -2856,7 +2851,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B6" s="4">
         <v>45814</v>
@@ -2865,16 +2860,16 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -2888,7 +2883,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B7" s="4">
         <v>45814</v>
@@ -2897,16 +2892,16 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -2920,7 +2915,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B8" s="4">
         <v>45815</v>
@@ -2929,16 +2924,16 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -2952,7 +2947,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B9" s="4">
         <v>45815</v>
@@ -2961,16 +2956,16 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -2984,7 +2979,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B10" s="4">
         <v>45815</v>
@@ -2993,16 +2988,16 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -3016,7 +3011,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B11" s="4">
         <v>45815</v>
@@ -3025,7 +3020,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -3034,7 +3029,7 @@
         <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -3048,7 +3043,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B12" s="4">
         <v>45816</v>
@@ -3057,16 +3052,16 @@
         <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -3080,7 +3075,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B13" s="4">
         <v>45816</v>
@@ -3089,7 +3084,7 @@
         <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -3098,7 +3093,7 @@
         <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -3110,12 +3105,12 @@
         <v>56</v>
       </c>
       <c r="M13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B14" s="4">
         <v>45813</v>
@@ -3124,16 +3119,16 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -3147,7 +3142,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B15" s="4">
         <v>45813</v>
@@ -3156,16 +3151,16 @@
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -3179,7 +3174,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B16" s="4">
         <v>45814</v>
@@ -3188,16 +3183,16 @@
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -3211,7 +3206,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B17" s="4">
         <v>45814</v>
@@ -3220,16 +3215,16 @@
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -3243,7 +3238,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B18" s="4">
         <v>45814</v>
@@ -3252,16 +3247,16 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -3275,7 +3270,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B19" s="4">
         <v>45814</v>
@@ -3284,16 +3279,16 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -3307,7 +3302,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B20" s="4">
         <v>45815</v>
@@ -3316,16 +3311,16 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -3339,7 +3334,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B21" s="4">
         <v>45815</v>
@@ -3348,16 +3343,16 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -3371,7 +3366,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B22" s="4">
         <v>45815</v>
@@ -3380,16 +3375,16 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -3403,7 +3398,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B23" s="4">
         <v>45815</v>
@@ -3412,16 +3407,16 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -3435,7 +3430,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B24" s="4">
         <v>45816</v>
@@ -3444,16 +3439,16 @@
         <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G24" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -3467,7 +3462,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B25" s="4">
         <v>45816</v>
@@ -3476,16 +3471,16 @@
         <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -3497,7 +3492,7 @@
         <v>55</v>
       </c>
       <c r="M25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -3598,7 +3593,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" s="4">
         <v>45449</v>
@@ -3607,16 +3602,16 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -3628,7 +3623,7 @@
         <v>65</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O2">
         <f>SUM(H2:H12)*2</f>
@@ -3649,7 +3644,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B3" s="4">
         <v>45449</v>
@@ -3658,16 +3653,16 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -3679,7 +3674,7 @@
         <v>39</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O3">
         <f>SUM(H13:H21)*2</f>
@@ -3700,7 +3695,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" s="4">
         <v>45450</v>
@@ -3709,16 +3704,16 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -3730,7 +3725,7 @@
         <v>44</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O4">
         <f>SUM(H22:H33)*2</f>
@@ -3751,7 +3746,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" s="4">
         <v>45450</v>
@@ -3760,16 +3755,16 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -3783,7 +3778,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" s="4">
         <v>45450</v>
@@ -3792,16 +3787,16 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -3831,7 +3826,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B7" s="4">
         <v>45450</v>
@@ -3840,16 +3835,16 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F7" t="s">
         <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -3863,7 +3858,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" s="4">
         <v>45450</v>
@@ -3872,16 +3867,16 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -3895,7 +3890,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B9" s="4">
         <v>45450</v>
@@ -3904,16 +3899,16 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -3927,7 +3922,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" s="4">
         <v>45450</v>
@@ -3936,16 +3931,16 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -3959,7 +3954,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" s="4">
         <v>45450</v>
@@ -3968,16 +3963,16 @@
         <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -3991,7 +3986,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B12" s="4">
         <v>45450</v>
@@ -4000,16 +3995,16 @@
         <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F12" t="s">
         <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -4021,12 +4016,12 @@
         <v>60</v>
       </c>
       <c r="M12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B13" s="4">
         <v>45449</v>
@@ -4035,16 +4030,16 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -4058,7 +4053,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B14" s="4">
         <v>45450</v>
@@ -4067,16 +4062,16 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -4090,7 +4085,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B15" s="4">
         <v>45450</v>
@@ -4099,16 +4094,16 @@
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -4122,7 +4117,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B16" s="4">
         <v>45450</v>
@@ -4131,16 +4126,16 @@
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F16" t="s">
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -4154,7 +4149,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B17" s="4">
         <v>45451</v>
@@ -4163,16 +4158,16 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -4186,7 +4181,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B18" s="4">
         <v>45451</v>
@@ -4195,16 +4190,16 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -4218,7 +4213,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B19" s="4">
         <v>45451</v>
@@ -4227,16 +4222,16 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -4250,7 +4245,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B20" s="4">
         <v>45452</v>
@@ -4259,16 +4254,16 @@
         <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -4282,7 +4277,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B21" s="4">
         <v>45452</v>
@@ -4291,16 +4286,16 @@
         <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F21" t="s">
         <v>43</v>
       </c>
       <c r="G21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -4312,12 +4307,12 @@
         <v>60</v>
       </c>
       <c r="M21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B22" s="4">
         <v>45449</v>
@@ -4326,16 +4321,16 @@
         <v>8</v>
       </c>
       <c r="D22" t="s">
+        <v>243</v>
+      </c>
+      <c r="E22" t="s">
         <v>244</v>
-      </c>
-      <c r="E22" t="s">
-        <v>245</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -4349,7 +4344,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B23" s="4">
         <v>45449</v>
@@ -4358,16 +4353,16 @@
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -4381,7 +4376,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B24" s="4">
         <v>45450</v>
@@ -4390,16 +4385,16 @@
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -4413,7 +4408,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B25" s="4">
         <v>45450</v>
@@ -4422,16 +4417,16 @@
         <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F25" t="s">
         <v>43</v>
       </c>
       <c r="G25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -4445,7 +4440,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B26" s="4">
         <v>45450</v>
@@ -4454,16 +4449,16 @@
         <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -4477,7 +4472,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B27" s="4">
         <v>45450</v>
@@ -4486,16 +4481,16 @@
         <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -4509,7 +4504,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B28" s="4">
         <v>45451</v>
@@ -4518,16 +4513,16 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F28" t="s">
         <v>43</v>
       </c>
       <c r="G28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -4541,7 +4536,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B29" s="4">
         <v>45451</v>
@@ -4550,16 +4545,16 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F29" t="s">
         <v>43</v>
       </c>
       <c r="G29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -4573,7 +4568,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B30" s="4">
         <v>45451</v>
@@ -4582,16 +4577,16 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -4605,7 +4600,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B31" s="4">
         <v>45451</v>
@@ -4614,16 +4609,16 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -4637,7 +4632,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B32" s="4">
         <v>45452</v>
@@ -4646,16 +4641,16 @@
         <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F32" t="s">
         <v>43</v>
       </c>
       <c r="G32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -4669,7 +4664,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B33" s="4">
         <v>45452</v>
@@ -4678,16 +4673,16 @@
         <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F33" t="s">
         <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -4699,7 +4694,7 @@
         <v>63</v>
       </c>
       <c r="M33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -4776,7 +4771,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" s="4">
         <v>45085</v>
@@ -4785,16 +4780,16 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -4806,7 +4801,7 @@
         <v>23</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O2">
         <f>SUM(H2:H12)*2</f>
@@ -4827,7 +4822,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B3" s="4">
         <v>45085</v>
@@ -4836,16 +4831,16 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -4857,7 +4852,7 @@
         <v>41</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O3">
         <f>SUM(H13:H23)*2</f>
@@ -4878,7 +4873,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" s="4">
         <v>45086</v>
@@ -4887,7 +4882,7 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -4896,7 +4891,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -4910,7 +4905,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" s="4">
         <v>45086</v>
@@ -4919,16 +4914,16 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -4958,7 +4953,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" s="4">
         <v>45086</v>
@@ -4967,16 +4962,16 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -4990,7 +4985,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B7" s="4">
         <v>45087</v>
@@ -4999,16 +4994,16 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -5022,7 +5017,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" s="4">
         <v>45087</v>
@@ -5031,16 +5026,16 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -5054,7 +5049,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B9" s="4">
         <v>45087</v>
@@ -5063,16 +5058,16 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -5086,7 +5081,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" s="4">
         <v>45087</v>
@@ -5095,16 +5090,16 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -5118,7 +5113,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" s="4">
         <v>45088</v>
@@ -5127,16 +5122,16 @@
         <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F11" t="s">
         <v>182</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -5150,7 +5145,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B12" s="4">
         <v>45088</v>
@@ -5159,16 +5154,16 @@
         <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -5180,12 +5175,12 @@
         <v>55</v>
       </c>
       <c r="M12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B13" s="4">
         <v>45085</v>
@@ -5194,16 +5189,16 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -5217,7 +5212,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B14" s="4">
         <v>45085</v>
@@ -5226,16 +5221,16 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -5249,7 +5244,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B15" s="4">
         <v>45086</v>
@@ -5258,16 +5253,16 @@
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -5281,7 +5276,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B16" s="4">
         <v>45086</v>
@@ -5290,16 +5285,16 @@
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F16" t="s">
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -5313,7 +5308,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B17" s="4">
         <v>45086</v>
@@ -5322,16 +5317,16 @@
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -5345,7 +5340,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B18" s="4">
         <v>45087</v>
@@ -5354,16 +5349,16 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -5377,7 +5372,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B19" s="4">
         <v>45087</v>
@@ -5386,16 +5381,16 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -5409,7 +5404,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B20" s="4">
         <v>45087</v>
@@ -5418,16 +5413,16 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -5441,7 +5436,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B21" s="4">
         <v>45087</v>
@@ -5450,16 +5445,16 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -5473,7 +5468,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B22" s="4">
         <v>45088</v>
@@ -5482,16 +5477,16 @@
         <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -5505,7 +5500,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B23" s="4">
         <v>45088</v>
@@ -5514,16 +5509,16 @@
         <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -5535,7 +5530,7 @@
         <v>50</v>
       </c>
       <c r="M23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -5612,25 +5607,25 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -5642,7 +5637,7 @@
         <v>67</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O2">
         <f>SUM(H2:H12)*2</f>
@@ -5663,25 +5658,25 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -5693,7 +5688,7 @@
         <v>50</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O3">
         <f>SUM(H13:H23)*2</f>
@@ -5714,25 +5709,25 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -5746,25 +5741,25 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -5794,25 +5789,25 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -5826,25 +5821,25 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -5858,25 +5853,25 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F8" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -5890,25 +5885,25 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -5922,25 +5917,25 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -5954,25 +5949,25 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" t="s">
         <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -5986,25 +5981,25 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s">
         <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F12" t="s">
         <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -6016,21 +6011,21 @@
         <v>56</v>
       </c>
       <c r="M12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
         <v>53</v>
@@ -6039,7 +6034,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -6053,25 +6048,25 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -6085,25 +6080,25 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -6117,25 +6112,25 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F16" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -6149,25 +6144,25 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F17" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -6181,25 +6176,25 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K18">
         <v>50</v>
@@ -6210,25 +6205,25 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -6242,25 +6237,25 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F20" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -6274,16 +6269,16 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
         <v>56</v>
@@ -6292,7 +6287,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -6306,25 +6301,25 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C22" t="s">
         <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F22" t="s">
         <v>43</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -6338,25 +6333,25 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C23" t="s">
         <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -6368,7 +6363,7 @@
         <v>50</v>
       </c>
       <c r="M23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -6445,19 +6440,19 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
         <v>79</v>
-      </c>
-      <c r="B2" t="s">
-        <v>80</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
         <v>81</v>
-      </c>
-      <c r="E2" t="s">
-        <v>82</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -6475,7 +6470,7 @@
         <v>30</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O2">
         <f>SUM(H2:H12)*2</f>
@@ -6496,19 +6491,19 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
         <v>79</v>
-      </c>
-      <c r="B3" t="s">
-        <v>80</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -6526,7 +6521,7 @@
         <v>30</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O3">
         <f>SUM(H13:H23)*2</f>
@@ -6547,16 +6542,16 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
@@ -6565,7 +6560,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -6579,25 +6574,25 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -6627,25 +6622,25 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -6659,25 +6654,25 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -6691,25 +6686,25 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F8" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -6723,25 +6718,25 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F9" t="s">
         <v>43</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -6755,25 +6750,25 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F10" t="s">
         <v>43</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -6787,25 +6782,25 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
         <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F11" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -6819,25 +6814,25 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
         <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -6849,30 +6844,30 @@
         <v>52</v>
       </c>
       <c r="M12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -6886,16 +6881,16 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
         <v>21</v>
@@ -6904,7 +6899,7 @@
         <v>43</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -6918,25 +6913,25 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -6950,25 +6945,25 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F16" t="s">
         <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -6982,25 +6977,25 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F17" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -7014,16 +7009,16 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
         <v>21</v>
@@ -7032,7 +7027,7 @@
         <v>43</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -7046,25 +7041,25 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -7078,25 +7073,25 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F20" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -7110,25 +7105,25 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -7142,16 +7137,16 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
         <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
         <v>42</v>
@@ -7160,7 +7155,7 @@
         <v>14</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -7174,16 +7169,16 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s">
         <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
         <v>21</v>
@@ -7192,7 +7187,7 @@
         <v>14</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -7204,7 +7199,7 @@
         <v>40</v>
       </c>
       <c r="M23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -7311,7 +7306,7 @@
         <v>43</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O2">
         <f>SUM(H2:H12)*2</f>
@@ -7440,13 +7435,13 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
         <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -7472,13 +7467,13 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -7495,7 +7490,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -7504,13 +7499,13 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
         <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -7529,7 +7524,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
@@ -7538,13 +7533,13 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
         <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -7558,10 +7553,10 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
@@ -7570,13 +7565,13 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -7590,10 +7585,10 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
         <v>41</v>
@@ -7602,13 +7597,13 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s">
         <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -7622,10 +7617,10 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
         <v>41</v>
@@ -7634,13 +7629,13 @@
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
         <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -7652,7 +7647,7 @@
         <v>55</v>
       </c>
       <c r="M12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -7758,7 +7753,7 @@
         <v>50</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O2">
         <f>SUM(H2:H12)*2</f>
@@ -8174,7 +8169,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B2" s="9">
         <v>42894</v>
@@ -8186,13 +8181,13 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -8204,7 +8199,7 @@
         <v>54</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O2">
         <f>SUM(H2:H11)*2</f>
@@ -8225,7 +8220,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B3" s="9">
         <v>42894</v>
@@ -8237,13 +8232,13 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -8257,7 +8252,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B4" s="9">
         <v>42895</v>
@@ -8269,13 +8264,13 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -8289,7 +8284,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B5" s="9">
         <v>42895</v>
@@ -8301,13 +8296,13 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -8321,7 +8316,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B6" s="9">
         <v>42895</v>
@@ -8333,13 +8328,13 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -8353,7 +8348,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B7" s="9">
         <v>42896</v>
@@ -8365,13 +8360,13 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -8385,7 +8380,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B8" s="9">
         <v>42896</v>
@@ -8397,13 +8392,13 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -8417,7 +8412,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B9" s="9">
         <v>42896</v>
@@ -8435,7 +8430,7 @@
         <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -8449,7 +8444,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B10" s="9">
         <v>42897</v>
@@ -8461,13 +8456,13 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -8481,7 +8476,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B11" s="9">
         <v>42897</v>
@@ -8499,7 +8494,7 @@
         <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -8511,7 +8506,7 @@
         <v>49</v>
       </c>
       <c r="M11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
